--- a/example_test.xlsx
+++ b/example_test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="20920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
   <si>
     <t>stg</t>
   </si>
@@ -379,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1777,4 +1778,735 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-5</v>
+      </c>
+      <c r="B2">
+        <v>2.41304E-3</v>
+      </c>
+      <c r="C2">
+        <v>3.0038500000000002E-3</v>
+      </c>
+      <c r="D2">
+        <v>1.9382100000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="F2">
+        <v>2.41304E-3</v>
+      </c>
+      <c r="G2">
+        <v>3.0038500000000002E-3</v>
+      </c>
+      <c r="H2">
+        <v>1.9382100000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-4</v>
+      </c>
+      <c r="B3">
+        <v>3.0038500000000002E-3</v>
+      </c>
+      <c r="C3">
+        <v>3.7387800000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>2.41304E-3</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>3.0038500000000002E-3</v>
+      </c>
+      <c r="G3">
+        <v>3.7387800000000001E-3</v>
+      </c>
+      <c r="H3">
+        <v>2.41304E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4">
+        <v>3.7387800000000001E-3</v>
+      </c>
+      <c r="C4">
+        <v>4.6526700000000002E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.0038500000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>-3</v>
+      </c>
+      <c r="F4">
+        <v>3.7387800000000001E-3</v>
+      </c>
+      <c r="G4">
+        <v>4.6526700000000002E-3</v>
+      </c>
+      <c r="H4">
+        <v>3.0038500000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-2</v>
+      </c>
+      <c r="B5">
+        <v>4.6526700000000002E-3</v>
+      </c>
+      <c r="C5">
+        <v>5.7886600000000002E-3</v>
+      </c>
+      <c r="D5">
+        <v>3.7387800000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5">
+        <v>4.6526700000000002E-3</v>
+      </c>
+      <c r="G5">
+        <v>5.7886600000000002E-3</v>
+      </c>
+      <c r="H5">
+        <v>3.7387800000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6">
+        <v>5.7886600000000002E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="D6">
+        <v>4.6526700000000002E-3</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>5.7886600000000002E-3</v>
+      </c>
+      <c r="G6">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="H6">
+        <v>4.6526700000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="C7">
+        <v>8.9523399999999996E-3</v>
+      </c>
+      <c r="D7">
+        <v>5.7886600000000002E-3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="G7">
+        <v>8.9523399999999996E-3</v>
+      </c>
+      <c r="H7">
+        <v>5.7886600000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>8.9523399999999996E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.11264E-2</v>
+      </c>
+      <c r="D8">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>8.9523399999999996E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.11264E-2</v>
+      </c>
+      <c r="H8">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1.11264E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.3821E-2</v>
+      </c>
+      <c r="D9">
+        <v>8.9523399999999996E-3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1.11264E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.3821E-2</v>
+      </c>
+      <c r="H9">
+        <v>8.9523399999999996E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1.3821E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.7156999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.11264E-2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1.3821E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.7156999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.11264E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1.7156999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.12807E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.3821E-2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>1.7156999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <v>2.12807E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.3821E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2.12807E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.6369E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.7156999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>2.12807E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.6369E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.7156999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.6331110019820601E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.6697305258613999E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.6333692124229501E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2.6369E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.2633299999999997E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.12807E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>3.2633299999999997E-2</v>
+      </c>
+      <c r="C14">
+        <v>4.0324199999999998E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.6369E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>4.0324199999999998E-2</v>
+      </c>
+      <c r="C15">
+        <v>4.9734500000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.2633299999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>4.9734500000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>6.12008E-2</v>
+      </c>
+      <c r="D16">
+        <v>4.0324199999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>6.12008E-2</v>
+      </c>
+      <c r="C17">
+        <v>7.5101699999999993E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.9734500000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>7.5101699999999993E-2</v>
+      </c>
+      <c r="C18">
+        <v>9.1851100000000005E-2</v>
+      </c>
+      <c r="D18">
+        <v>6.12008E-2</v>
+      </c>
+      <c r="J18">
+        <v>9.2706200058026003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>9.1851100000000005E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.111884</v>
+      </c>
+      <c r="D19">
+        <v>7.5101699999999993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0.111884</v>
+      </c>
+      <c r="C20">
+        <v>0.135634</v>
+      </c>
+      <c r="D20">
+        <v>9.1851100000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>0.135634</v>
+      </c>
+      <c r="C21">
+        <v>0.163497</v>
+      </c>
+      <c r="D21">
+        <v>0.111884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>0.163497</v>
+      </c>
+      <c r="C22">
+        <v>0.19578699999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.135634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0.19578699999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.232681</v>
+      </c>
+      <c r="D23">
+        <v>0.163497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0.232681</v>
+      </c>
+      <c r="C24">
+        <v>0.27415600000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.19578699999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.27874100100893401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0.27415600000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.31994299999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.232681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0.31994299999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.36948300000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.27415600000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>0.36948300000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.421935</v>
+      </c>
+      <c r="D27">
+        <v>0.31994299999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0.421935</v>
+      </c>
+      <c r="C28">
+        <v>0.47621000000000002</v>
+      </c>
+      <c r="D28">
+        <v>0.36948300000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>0.47621000000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.53105199999999997</v>
+      </c>
+      <c r="D29">
+        <v>0.421935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>0.53105199999999997</v>
+      </c>
+      <c r="C30">
+        <v>0.58515399999999995</v>
+      </c>
+      <c r="D30">
+        <v>0.47621000000000002</v>
+      </c>
+      <c r="L30">
+        <v>0.59377673456186997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>0.58515399999999995</v>
+      </c>
+      <c r="C31">
+        <v>0.63727800000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.53105199999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>0.63727800000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.68636299999999995</v>
+      </c>
+      <c r="D32">
+        <v>0.58515399999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0.68636299999999995</v>
+      </c>
+      <c r="C33">
+        <v>0.731603</v>
+      </c>
+      <c r="D33">
+        <v>0.63727800000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>0.731603</v>
+      </c>
+      <c r="C34">
+        <v>0.77248099999999997</v>
+      </c>
+      <c r="D34">
+        <v>0.68636299999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>0.77248099999999997</v>
+      </c>
+      <c r="C35">
+        <v>0.80876000000000003</v>
+      </c>
+      <c r="D35">
+        <v>0.731603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>0.80876000000000003</v>
+      </c>
+      <c r="C36">
+        <v>0.840449</v>
+      </c>
+      <c r="D36">
+        <v>0.77248099999999997</v>
+      </c>
+      <c r="M36">
+        <v>0.84682541092339003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>0.840449</v>
+      </c>
+      <c r="C37">
+        <v>0.86774600000000002</v>
+      </c>
+      <c r="D37">
+        <v>0.80876000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>0.86774600000000002</v>
+      </c>
+      <c r="C38">
+        <v>0.89097800000000005</v>
+      </c>
+      <c r="D38">
+        <v>0.840449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>0.89097800000000005</v>
+      </c>
+      <c r="C39">
+        <v>0.91054999999999997</v>
+      </c>
+      <c r="D39">
+        <v>0.86774600000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0.95435893069726196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example_test.xlsx
+++ b/example_test.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="20920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="20520" windowHeight="21520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -95,8 +96,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1782,15 +1784,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1816,694 +1821,1598 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-5</v>
       </c>
       <c r="B2">
-        <v>2.41304E-3</v>
+        <v>2.3793199999999999E-3</v>
       </c>
       <c r="C2">
-        <v>3.0038500000000002E-3</v>
+        <v>2.9619099999999999E-3</v>
       </c>
       <c r="D2">
-        <v>1.9382100000000001E-3</v>
+        <v>1.9111E-3</v>
       </c>
       <c r="E2">
         <v>-5</v>
       </c>
       <c r="F2">
-        <v>2.41304E-3</v>
+        <v>2.3793199999999999E-3</v>
       </c>
       <c r="G2">
-        <v>3.0038500000000002E-3</v>
+        <v>2.9619099999999999E-3</v>
       </c>
       <c r="H2">
-        <v>1.9382100000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.9111E-3</v>
+      </c>
+      <c r="I2">
+        <v>1.90951636135497E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-4</v>
       </c>
       <c r="B3">
-        <v>3.0038500000000002E-3</v>
+        <v>2.9619099999999999E-3</v>
       </c>
       <c r="C3">
-        <v>3.7387800000000001E-3</v>
+        <v>3.6866300000000002E-3</v>
       </c>
       <c r="D3">
-        <v>2.41304E-3</v>
+        <v>2.3793199999999999E-3</v>
       </c>
       <c r="E3">
         <v>-4</v>
       </c>
       <c r="F3">
-        <v>3.0038500000000002E-3</v>
+        <v>2.9619099999999999E-3</v>
       </c>
       <c r="G3">
-        <v>3.7387800000000001E-3</v>
+        <v>3.6866300000000002E-3</v>
       </c>
       <c r="H3">
-        <v>2.41304E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.3793199999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-3</v>
       </c>
       <c r="B4">
-        <v>3.7387800000000001E-3</v>
+        <v>3.6866300000000002E-3</v>
       </c>
       <c r="C4">
-        <v>4.6526700000000002E-3</v>
+        <v>4.5878500000000001E-3</v>
       </c>
       <c r="D4">
-        <v>3.0038500000000002E-3</v>
+        <v>2.9619099999999999E-3</v>
       </c>
       <c r="E4">
         <v>-3</v>
       </c>
       <c r="F4">
-        <v>3.7387800000000001E-3</v>
+        <v>3.6866300000000002E-3</v>
       </c>
       <c r="G4">
-        <v>4.6526700000000002E-3</v>
+        <v>4.5878500000000001E-3</v>
       </c>
       <c r="H4">
-        <v>3.0038500000000002E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.9619099999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-2</v>
       </c>
       <c r="B5">
-        <v>4.6526700000000002E-3</v>
+        <v>4.5878500000000001E-3</v>
       </c>
       <c r="C5">
-        <v>5.7886600000000002E-3</v>
+        <v>5.7081299999999996E-3</v>
       </c>
       <c r="D5">
-        <v>3.7387800000000001E-3</v>
+        <v>3.6866300000000002E-3</v>
       </c>
       <c r="E5">
         <v>-2</v>
       </c>
       <c r="F5">
-        <v>4.6526700000000002E-3</v>
+        <v>4.5878500000000001E-3</v>
       </c>
       <c r="G5">
-        <v>5.7886600000000002E-3</v>
+        <v>5.7081299999999996E-3</v>
       </c>
       <c r="H5">
-        <v>3.7387800000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3.6866300000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-1</v>
       </c>
       <c r="B6">
-        <v>5.7886600000000002E-3</v>
+        <v>5.7081299999999996E-3</v>
       </c>
       <c r="C6">
-        <v>7.1999999999999998E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="D6">
-        <v>4.6526700000000002E-3</v>
+        <v>4.5878500000000001E-3</v>
       </c>
       <c r="E6">
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>5.7886600000000002E-3</v>
+        <v>5.7081299999999996E-3</v>
       </c>
       <c r="G6">
-        <v>7.1999999999999998E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="H6">
-        <v>4.6526700000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.5878500000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>7.1999999999999998E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="C7">
-        <v>8.9523399999999996E-3</v>
+        <v>8.8282599999999992E-3</v>
       </c>
       <c r="D7">
-        <v>5.7886600000000002E-3</v>
+        <v>5.7081299999999996E-3</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>7.1999999999999998E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="G7">
-        <v>8.9523399999999996E-3</v>
+        <v>8.8282599999999992E-3</v>
       </c>
       <c r="H7">
-        <v>5.7886600000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5.7081299999999996E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>8.9523399999999996E-3</v>
+        <v>8.8282599999999992E-3</v>
       </c>
       <c r="C8">
-        <v>1.11264E-2</v>
+        <v>1.0972600000000001E-2</v>
       </c>
       <c r="D8">
-        <v>7.1999999999999998E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>8.9523399999999996E-3</v>
+        <v>8.8282599999999992E-3</v>
       </c>
       <c r="G8">
-        <v>1.11264E-2</v>
+        <v>1.0972600000000001E-2</v>
       </c>
       <c r="H8">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="J8">
+        <v>-5</v>
+      </c>
+      <c r="K8">
+        <v>8.2350855487341498E-3</v>
+      </c>
+      <c r="L8">
+        <f>(K8-$D8)/K8</f>
+        <v>0.1378353074800332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>1.11264E-2</v>
+        <v>1.0972600000000001E-2</v>
       </c>
       <c r="C9">
-        <v>1.3821E-2</v>
+        <v>1.36305E-2</v>
       </c>
       <c r="D9">
-        <v>8.9523399999999996E-3</v>
+        <v>8.8282599999999992E-3</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1.11264E-2</v>
+        <v>1.0972600000000001E-2</v>
       </c>
       <c r="G9">
-        <v>1.3821E-2</v>
+        <v>1.36305E-2</v>
       </c>
       <c r="H9">
-        <v>8.9523399999999996E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8.8282599999999992E-3</v>
+      </c>
+      <c r="J9">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>1.3821E-2</v>
+        <v>1.36305E-2</v>
       </c>
       <c r="C10">
-        <v>1.7156999999999999E-2</v>
+        <v>1.69213E-2</v>
       </c>
       <c r="D10">
-        <v>1.11264E-2</v>
+        <v>1.0972600000000001E-2</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>1.3821E-2</v>
+        <v>1.36305E-2</v>
       </c>
       <c r="G10">
-        <v>1.7156999999999999E-2</v>
+        <v>1.69213E-2</v>
       </c>
       <c r="H10">
-        <v>1.11264E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.0972600000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.7156999999999999E-2</v>
+        <v>1.69213E-2</v>
       </c>
       <c r="C11">
-        <v>2.12807E-2</v>
+        <v>2.09897E-2</v>
       </c>
       <c r="D11">
-        <v>1.3821E-2</v>
+        <v>1.36305E-2</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>1.7156999999999999E-2</v>
+        <v>1.69213E-2</v>
       </c>
       <c r="G11">
-        <v>2.12807E-2</v>
+        <v>2.09897E-2</v>
       </c>
       <c r="H11">
-        <v>1.3821E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.36305E-2</v>
+      </c>
+      <c r="J11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>2.12807E-2</v>
+        <v>2.09897E-2</v>
       </c>
       <c r="C12">
-        <v>2.6369E-2</v>
+        <v>2.6010399999999999E-2</v>
       </c>
       <c r="D12">
-        <v>1.7156999999999999E-2</v>
+        <v>1.69213E-2</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>2.12807E-2</v>
+        <v>2.09897E-2</v>
       </c>
       <c r="G12">
-        <v>2.6369E-2</v>
+        <v>2.6010399999999999E-2</v>
       </c>
       <c r="H12">
-        <v>1.7156999999999999E-2</v>
+        <v>1.69213E-2</v>
       </c>
       <c r="I12">
-        <v>2.6331110019820601E-2</v>
+        <v>2.6010375588857999E-2</v>
       </c>
       <c r="J12">
-        <v>2.6697305258613999E-2</v>
-      </c>
-      <c r="K12">
-        <v>2.6333692124229501E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
-        <v>2.6369E-2</v>
+        <v>2.6010399999999999E-2</v>
       </c>
       <c r="C13">
-        <v>3.2633299999999997E-2</v>
+        <v>3.2192499999999999E-2</v>
       </c>
       <c r="D13">
-        <v>2.12807E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.09897E-2</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>3.2633299999999997E-2</v>
+        <v>3.2192499999999999E-2</v>
       </c>
       <c r="C14">
-        <v>4.0324199999999998E-2</v>
+        <v>3.9783899999999997E-2</v>
       </c>
       <c r="D14">
-        <v>2.6369E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.6010399999999999E-2</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>-5</v>
+      </c>
+      <c r="N14">
+        <v>4.0909812013729903E-2</v>
+      </c>
+      <c r="O14">
+        <f>(N14-$D14)/N14</f>
+        <v>0.36420142944507916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>4.0324199999999998E-2</v>
+        <v>3.9783899999999997E-2</v>
       </c>
       <c r="C15">
-        <v>4.9734500000000001E-2</v>
+        <v>4.9074800000000002E-2</v>
       </c>
       <c r="D15">
-        <v>3.2633299999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3.2192499999999999E-2</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16">
-        <v>4.9734500000000001E-2</v>
+        <v>4.9074800000000002E-2</v>
       </c>
       <c r="C16">
-        <v>6.12008E-2</v>
+        <v>6.0398899999999998E-2</v>
       </c>
       <c r="D16">
-        <v>4.0324199999999998E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.9783899999999997E-2</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
-        <v>6.12008E-2</v>
+        <v>6.0398899999999998E-2</v>
       </c>
       <c r="C17">
-        <v>7.5101699999999993E-2</v>
+        <v>7.4132299999999998E-2</v>
       </c>
       <c r="D17">
-        <v>4.9734500000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4.9074800000000002E-2</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18">
-        <v>7.5101699999999993E-2</v>
+        <v>7.4132299999999998E-2</v>
       </c>
       <c r="C18">
-        <v>9.1851100000000005E-2</v>
+        <v>9.0687000000000004E-2</v>
       </c>
       <c r="D18">
-        <v>6.12008E-2</v>
-      </c>
+        <v>6.0398899999999998E-2</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="J18">
-        <v>9.2706200058026003E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>9.0602435283087396E-2</v>
+      </c>
+      <c r="L18">
+        <f>K18-$C18</f>
+        <v>-8.4564716912607918E-5</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19">
-        <v>9.1851100000000005E-2</v>
+        <v>9.0687000000000004E-2</v>
       </c>
       <c r="C19">
-        <v>0.111884</v>
+        <v>0.110497</v>
       </c>
       <c r="D19">
-        <v>7.5101699999999993E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.4132299999999998E-2</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13</v>
       </c>
       <c r="B20">
-        <v>0.111884</v>
+        <v>0.110497</v>
       </c>
       <c r="C20">
-        <v>0.135634</v>
+        <v>0.13399800000000001</v>
       </c>
       <c r="D20">
-        <v>9.1851100000000005E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.0687000000000004E-2</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>-5</v>
+      </c>
+      <c r="Q20">
+        <v>0.18559238712964901</v>
+      </c>
+      <c r="R20">
+        <f>(Q20-$D20)/Q20</f>
+        <v>0.51136465561677957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>14</v>
       </c>
       <c r="B21">
-        <v>0.135634</v>
+        <v>0.13399800000000001</v>
       </c>
       <c r="C21">
-        <v>0.163497</v>
+        <v>0.16158800000000001</v>
       </c>
       <c r="D21">
-        <v>0.111884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.110497</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>15</v>
       </c>
       <c r="B22">
-        <v>0.163497</v>
+        <v>0.16158800000000001</v>
       </c>
       <c r="C22">
-        <v>0.19578699999999999</v>
+        <v>0.19358900000000001</v>
       </c>
       <c r="D22">
-        <v>0.135634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.13399800000000001</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>16</v>
       </c>
       <c r="B23">
-        <v>0.19578699999999999</v>
+        <v>0.19358900000000001</v>
       </c>
       <c r="C23">
-        <v>0.232681</v>
+        <v>0.230188</v>
       </c>
       <c r="D23">
-        <v>0.163497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.16158800000000001</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>17</v>
       </c>
       <c r="B24">
-        <v>0.232681</v>
+        <v>0.230188</v>
       </c>
       <c r="C24">
-        <v>0.27415600000000001</v>
+        <v>0.27137699999999998</v>
       </c>
       <c r="D24">
-        <v>0.19578699999999999</v>
-      </c>
-      <c r="K24">
-        <v>0.27874100100893401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.19358900000000001</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>0.27117461392992698</v>
+      </c>
+      <c r="O24">
+        <f>N24-$C24</f>
+        <v>-2.023860700730018E-4</v>
+      </c>
+      <c r="P24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>18</v>
       </c>
       <c r="B25">
-        <v>0.27415600000000001</v>
+        <v>0.27137699999999998</v>
       </c>
       <c r="C25">
-        <v>0.31994299999999998</v>
+        <v>0.31690299999999999</v>
       </c>
       <c r="D25">
-        <v>0.232681</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.230188</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>19</v>
       </c>
       <c r="B26">
-        <v>0.31994299999999998</v>
+        <v>0.31690299999999999</v>
       </c>
       <c r="C26">
-        <v>0.36948300000000001</v>
+        <v>0.366228</v>
       </c>
       <c r="D26">
-        <v>0.27415600000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.27137699999999998</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>-5</v>
+      </c>
+      <c r="T26">
+        <v>0.51071267521018204</v>
+      </c>
+      <c r="U26">
+        <f>(T26-$D26)/T26</f>
+        <v>0.46863077191433383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20</v>
       </c>
       <c r="B27">
-        <v>0.36948300000000001</v>
+        <v>0.366228</v>
       </c>
       <c r="C27">
-        <v>0.421935</v>
+        <v>0.41852499999999998</v>
       </c>
       <c r="D27">
-        <v>0.31994299999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.31690299999999999</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21</v>
       </c>
       <c r="B28">
-        <v>0.421935</v>
+        <v>0.41852499999999998</v>
       </c>
       <c r="C28">
-        <v>0.47621000000000002</v>
+        <v>0.472721</v>
       </c>
       <c r="D28">
-        <v>0.36948300000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.366228</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>22</v>
       </c>
       <c r="B29">
-        <v>0.47621000000000002</v>
+        <v>0.472721</v>
       </c>
       <c r="C29">
-        <v>0.53105199999999997</v>
+        <v>0.52756700000000001</v>
       </c>
       <c r="D29">
-        <v>0.421935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.41852499999999998</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="P29">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23</v>
       </c>
       <c r="B30">
-        <v>0.53105199999999997</v>
+        <v>0.52756700000000001</v>
       </c>
       <c r="C30">
-        <v>0.58515399999999995</v>
+        <v>0.58175600000000005</v>
       </c>
       <c r="D30">
-        <v>0.47621000000000002</v>
-      </c>
-      <c r="L30">
-        <v>0.59377673456186997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.472721</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="P30">
+        <v>5</v>
+      </c>
+      <c r="Q30">
+        <v>0.58150601668100399</v>
+      </c>
+      <c r="R30">
+        <f>Q30-$C30</f>
+        <v>-2.4998331899606097E-4</v>
+      </c>
+      <c r="S30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>24</v>
       </c>
       <c r="B31">
-        <v>0.58515399999999995</v>
+        <v>0.58175600000000005</v>
       </c>
       <c r="C31">
-        <v>0.63727800000000001</v>
+        <v>0.63404000000000005</v>
       </c>
       <c r="D31">
-        <v>0.53105199999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.52756700000000001</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>25</v>
       </c>
       <c r="B32">
-        <v>0.63727800000000001</v>
+        <v>0.63404000000000005</v>
       </c>
       <c r="C32">
-        <v>0.68636299999999995</v>
+        <v>0.68334700000000004</v>
       </c>
       <c r="D32">
-        <v>0.58515399999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.58175600000000005</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>-5</v>
+      </c>
+      <c r="W32">
+        <v>0.81740963123041399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>26</v>
       </c>
       <c r="B33">
-        <v>0.68636299999999995</v>
+        <v>0.68334700000000004</v>
       </c>
       <c r="C33">
-        <v>0.731603</v>
+        <v>0.72885100000000003</v>
       </c>
       <c r="D33">
-        <v>0.63727800000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.63404000000000005</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>27</v>
       </c>
       <c r="B34">
-        <v>0.731603</v>
+        <v>0.72885100000000003</v>
       </c>
       <c r="C34">
-        <v>0.77248099999999997</v>
+        <v>0.77001699999999995</v>
       </c>
       <c r="D34">
-        <v>0.68636299999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.68334700000000004</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>28</v>
       </c>
       <c r="B35">
-        <v>0.77248099999999997</v>
+        <v>0.77001699999999995</v>
       </c>
       <c r="C35">
-        <v>0.80876000000000003</v>
+        <v>0.80659099999999995</v>
       </c>
       <c r="D35">
-        <v>0.731603</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.72885100000000003</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>29</v>
       </c>
       <c r="B36">
-        <v>0.80876000000000003</v>
+        <v>0.80659099999999995</v>
       </c>
       <c r="C36">
-        <v>0.840449</v>
+        <v>0.83856799999999998</v>
       </c>
       <c r="D36">
-        <v>0.77248099999999997</v>
-      </c>
-      <c r="M36">
-        <v>0.84682541092339003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.77001699999999995</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>0.83842948985029797</v>
+      </c>
+      <c r="U36">
+        <f>T36-$C36</f>
+        <v>-1.3851014970200914E-4</v>
+      </c>
+      <c r="V36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>30</v>
       </c>
       <c r="B37">
-        <v>0.840449</v>
+        <v>0.83856799999999998</v>
       </c>
       <c r="C37">
-        <v>0.86774600000000002</v>
+        <v>0.86613600000000002</v>
       </c>
       <c r="D37">
-        <v>0.80876000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.80659099999999995</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>31</v>
       </c>
       <c r="B38">
-        <v>0.86774600000000002</v>
+        <v>0.86613600000000002</v>
       </c>
       <c r="C38">
-        <v>0.89097800000000005</v>
+        <v>0.88961599999999996</v>
       </c>
       <c r="D38">
-        <v>0.840449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.83856799999999998</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="V38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>32</v>
       </c>
       <c r="B39">
-        <v>0.89097800000000005</v>
+        <v>0.88961599999999996</v>
       </c>
       <c r="C39">
-        <v>0.91054999999999997</v>
+        <v>0.90940799999999999</v>
       </c>
       <c r="D39">
-        <v>0.86774600000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N42">
-        <v>0.95435893069726196</v>
+        <v>0.86613600000000002</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="V39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V42">
+        <v>5</v>
+      </c>
+      <c r="W42">
+        <v>0.95380202981446305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>-5</v>
+      </c>
+      <c r="B1">
+        <v>2.3793199999999999E-3</v>
+      </c>
+      <c r="C1">
+        <v>2.9619099999999999E-3</v>
+      </c>
+      <c r="D1">
+        <v>1.9111E-3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1.6780199999999999E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-4</v>
+      </c>
+      <c r="B2">
+        <v>2.9619099999999999E-3</v>
+      </c>
+      <c r="C2">
+        <v>3.6866300000000002E-3</v>
+      </c>
+      <c r="D2">
+        <v>2.3793199999999999E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.0269699999999999E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-3</v>
+      </c>
+      <c r="B3">
+        <v>3.6866300000000002E-3</v>
+      </c>
+      <c r="C3">
+        <v>4.5878500000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>2.9619099999999999E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.1121500000000003E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="B4">
+        <v>4.5878500000000001E-3</v>
+      </c>
+      <c r="C4">
+        <v>5.7081299999999996E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.6866300000000002E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.9861200000000003E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>5.7081299999999996E-3</v>
+      </c>
+      <c r="C5">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="D5">
+        <v>4.5878500000000001E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.69119E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="C6">
+        <v>8.8282599999999992E-3</v>
+      </c>
+      <c r="D6">
+        <v>5.7081299999999996E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.2614900000000003E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>8.8282599999999992E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.0972600000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.0348400000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1.0972600000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.36305E-2</v>
+      </c>
+      <c r="D8">
+        <v>8.8282599999999992E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.0500300000000003E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1.36305E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.69213E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.0972600000000001E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.25938E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1.69213E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.09897E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.36305E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.62462E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2.09897E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.6010399999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.69213E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.1149999999999999E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2.6010399999999999E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.2192499999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.09897E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.70586E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>3.2192499999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.9783899999999997E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.6010399999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.37737E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3.9783899999999997E-2</v>
+      </c>
+      <c r="C14">
+        <v>4.9074800000000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.2192499999999999E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.11363E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>4.9074800000000002E-2</v>
+      </c>
+      <c r="C15">
+        <v>6.0398899999999998E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.9783899999999997E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9.0188000000000008E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>6.0398899999999998E-2</v>
+      </c>
+      <c r="C16">
+        <v>7.4132299999999998E-2</v>
+      </c>
+      <c r="D16">
+        <v>4.9074800000000002E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7.31858E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>7.4132299999999998E-2</v>
+      </c>
+      <c r="C17">
+        <v>9.0687000000000004E-2</v>
+      </c>
+      <c r="D17">
+        <v>6.0398899999999998E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5.9533399999999997E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>9.0687000000000004E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.110497</v>
+      </c>
+      <c r="D18">
+        <v>7.4132299999999998E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.85696E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>0.110497</v>
+      </c>
+      <c r="C19">
+        <v>0.13399800000000001</v>
+      </c>
+      <c r="D19">
+        <v>9.0687000000000004E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.9763600000000003E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>0.13399800000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.16158800000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.110497</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.2689000000000002E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0.16158800000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.19358900000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.13399800000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.7003300000000002E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>0.19358900000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.230188</v>
+      </c>
+      <c r="D22">
+        <v>0.16158800000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.2431199999999999E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>0.230188</v>
+      </c>
+      <c r="C23">
+        <v>0.27137699999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.19358900000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.87512E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>0.27137699999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.31690299999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.230188</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.57853E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>0.31690299999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.366228</v>
+      </c>
+      <c r="D25">
+        <v>0.27137699999999998</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.33897E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>0.366228</v>
+      </c>
+      <c r="C26">
+        <v>0.41852499999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.31690299999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.1448499999999999E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>0.41852499999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.472721</v>
+      </c>
+      <c r="D27">
+        <v>0.366228</v>
+      </c>
+      <c r="E27" s="1">
+        <v>9.8676200000000003E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>0.472721</v>
+      </c>
+      <c r="C28">
+        <v>0.52756700000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.41852499999999998</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8.5706200000000003E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>0.52756700000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.58175600000000005</v>
+      </c>
+      <c r="D29">
+        <v>0.472721</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.49466E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>0.58175600000000005</v>
+      </c>
+      <c r="C30">
+        <v>0.63404000000000005</v>
+      </c>
+      <c r="D30">
+        <v>0.52756700000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6.5876400000000001E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>0.63404000000000005</v>
+      </c>
+      <c r="C31">
+        <v>0.68334700000000004</v>
+      </c>
+      <c r="D31">
+        <v>0.58175600000000005</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5.8056399999999996E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0.68334700000000004</v>
+      </c>
+      <c r="C32">
+        <v>0.72885100000000003</v>
+      </c>
+      <c r="D32">
+        <v>0.63404000000000005</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5.1107900000000002E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>0.72885100000000003</v>
+      </c>
+      <c r="C33">
+        <v>0.77001699999999995</v>
+      </c>
+      <c r="D33">
+        <v>0.68334700000000004</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4.4694600000000001E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>0.77001699999999995</v>
+      </c>
+      <c r="C34">
+        <v>0.80659099999999995</v>
+      </c>
+      <c r="D34">
+        <v>0.72885100000000003</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.8505900000000001E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>0.80659099999999995</v>
+      </c>
+      <c r="C35">
+        <v>0.83856799999999998</v>
+      </c>
+      <c r="D35">
+        <v>0.77001699999999995</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.2242E-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>0.83856799999999998</v>
+      </c>
+      <c r="C36">
+        <v>0.86613600000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.80659099999999995</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.5599800000000001E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>0.86613600000000002</v>
+      </c>
+      <c r="C37">
+        <v>0.88961599999999996</v>
+      </c>
+      <c r="D37">
+        <v>0.83856799999999998</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.8257600000000001E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>0.88961599999999996</v>
+      </c>
+      <c r="C38">
+        <v>0.90940799999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.86613600000000002</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9.8598700000000005E-8</v>
       </c>
     </row>
   </sheetData>

--- a/example_test.xlsx
+++ b/example_test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="20520" windowHeight="21520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="20900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
   <si>
     <t>stg</t>
   </si>
@@ -1786,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2758,661 +2758,804 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>-5</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>2.3793199999999999E-3</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>2.9619099999999999E-3</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>1.9111E-3</v>
       </c>
-      <c r="E1" s="1">
-        <v>1.6780199999999999E-5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="E2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>-4</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2.9619099999999999E-3</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>3.6866300000000002E-3</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2.3793199999999999E-3</v>
       </c>
-      <c r="E2" s="1">
-        <v>3.0269699999999999E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>-3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>3.6866300000000002E-3</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>4.5878500000000001E-3</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>2.9619099999999999E-3</v>
       </c>
-      <c r="E3" s="1">
-        <v>4.1121500000000003E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>-2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>4.5878500000000001E-3</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>5.7081299999999996E-3</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>3.6866300000000002E-3</v>
       </c>
-      <c r="E4" s="1">
-        <v>4.9861200000000003E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>-1</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>5.7081299999999996E-3</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>4.5878500000000001E-3</v>
       </c>
-      <c r="E5" s="1">
-        <v>5.69119E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>8.8282599999999992E-3</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>5.7081299999999996E-3</v>
       </c>
-      <c r="E6" s="1">
-        <v>6.2614900000000003E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>8.8282599999999992E-3</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1.0972600000000001E-2</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E7" s="1">
-        <v>5.0348400000000001E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1.0972600000000001E-2</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1.36305E-2</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>8.8282599999999992E-3</v>
       </c>
-      <c r="E8" s="1">
-        <v>4.0500300000000003E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1.36305E-2</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1.69213E-2</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1.0972600000000001E-2</v>
       </c>
-      <c r="E9" s="1">
-        <v>3.25938E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1.69213E-2</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2.09897E-2</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>1.36305E-2</v>
       </c>
-      <c r="E10" s="1">
-        <v>2.62462E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>2.09897E-2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2.6010399999999999E-2</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1.69213E-2</v>
       </c>
-      <c r="E11" s="1">
-        <v>2.1149999999999999E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>2.6010399999999999E-2</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>3.2192499999999999E-2</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>2.09897E-2</v>
       </c>
-      <c r="E12" s="1">
-        <v>1.70586E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E13" s="1"/>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>3.2192499999999999E-2</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>3.9783899999999997E-2</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>2.6010399999999999E-2</v>
       </c>
-      <c r="E13" s="1">
-        <v>1.37737E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="E14" s="1"/>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>3.9783899999999997E-2</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>4.9074800000000002E-2</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>3.2192499999999999E-2</v>
       </c>
-      <c r="E14" s="1">
-        <v>1.11363E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E15" s="1"/>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>4.9074800000000002E-2</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>6.0398899999999998E-2</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>3.9783899999999997E-2</v>
       </c>
-      <c r="E15" s="1">
-        <v>9.0188000000000008E-6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="E16" s="1"/>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>6.0398899999999998E-2</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>7.4132299999999998E-2</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>4.9074800000000002E-2</v>
       </c>
-      <c r="E16" s="1">
-        <v>7.31858E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="E17" s="1"/>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>7.4132299999999998E-2</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>9.0687000000000004E-2</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>6.0398899999999998E-2</v>
       </c>
-      <c r="E17" s="1">
-        <v>5.9533399999999997E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="E18" s="1"/>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>9.0687000000000004E-2</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.110497</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>7.4132299999999998E-2</v>
       </c>
-      <c r="E18" s="1">
-        <v>4.85696E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="E19" s="1"/>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>0.110497</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>0.13399800000000001</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>9.0687000000000004E-2</v>
       </c>
-      <c r="E19" s="1">
-        <v>3.9763600000000003E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="E20" s="1"/>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0.13399800000000001</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>0.16158800000000001</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0.110497</v>
       </c>
-      <c r="E20" s="1">
-        <v>3.2689000000000002E-6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="E21" s="1"/>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>0.16158800000000001</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0.19358900000000001</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>0.13399800000000001</v>
       </c>
-      <c r="E21" s="1">
-        <v>2.7003300000000002E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="E22" s="1"/>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>0.19358900000000001</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>0.230188</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>0.16158800000000001</v>
       </c>
-      <c r="E22" s="1">
-        <v>2.2431199999999999E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="E23" s="1"/>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>0.230188</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>0.27137699999999998</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0.19358900000000001</v>
       </c>
-      <c r="E23" s="1">
-        <v>1.87512E-6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="E24" s="1"/>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>0.27137699999999998</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>0.31690299999999999</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0.230188</v>
       </c>
-      <c r="E24" s="1">
-        <v>1.57853E-6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="E25" s="1"/>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>0.31690299999999999</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>0.366228</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>0.27137699999999998</v>
       </c>
-      <c r="E25" s="1">
-        <v>1.33897E-6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="E26" s="1"/>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>0.366228</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>0.41852499999999998</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>0.31690299999999999</v>
       </c>
-      <c r="E26" s="1">
-        <v>1.1448499999999999E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="E27" s="1"/>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>21</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>0.41852499999999998</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>0.472721</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>0.366228</v>
       </c>
-      <c r="E27" s="1">
-        <v>9.8676200000000003E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="E28" s="1"/>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>0.472721</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>0.52756700000000001</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>0.41852499999999998</v>
       </c>
-      <c r="E28" s="1">
-        <v>8.5706200000000003E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="E29" s="1"/>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>23</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>0.52756700000000001</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>0.58175600000000005</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>0.472721</v>
       </c>
-      <c r="E29" s="1">
-        <v>7.49466E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="E30" s="1"/>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>0.58175600000000005</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>0.63404000000000005</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>0.52756700000000001</v>
       </c>
-      <c r="E30" s="1">
-        <v>6.5876400000000001E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="E31" s="1"/>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>25</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>0.63404000000000005</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>0.68334700000000004</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>0.58175600000000005</v>
       </c>
-      <c r="E31" s="1">
-        <v>5.8056399999999996E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="E32" s="1"/>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>0.68334700000000004</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>0.72885100000000003</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>0.63404000000000005</v>
       </c>
-      <c r="E32" s="1">
-        <v>5.1107900000000002E-7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="E33" s="1"/>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>27</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>0.72885100000000003</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>0.77001699999999995</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>0.68334700000000004</v>
       </c>
-      <c r="E33" s="1">
-        <v>4.4694600000000001E-7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="E34" s="1"/>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>0.77001699999999995</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>0.80659099999999995</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>0.72885100000000003</v>
       </c>
-      <c r="E34" s="1">
-        <v>3.8505900000000001E-7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="E35" s="1"/>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>0.80659099999999995</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>0.83856799999999998</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>0.77001699999999995</v>
       </c>
-      <c r="E35" s="1">
-        <v>3.2242E-7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="E36" s="1"/>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>30</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>0.83856799999999998</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>0.86613600000000002</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0.80659099999999995</v>
       </c>
-      <c r="E36" s="1">
-        <v>2.5599800000000001E-7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="E37" s="1"/>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>0.86613600000000002</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>0.88961599999999996</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>0.83856799999999998</v>
       </c>
-      <c r="E37" s="1">
-        <v>1.8257600000000001E-7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="E38" s="1"/>
+      <c r="J38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>0.88961599999999996</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>0.90940799999999999</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>0.86613600000000002</v>
       </c>
-      <c r="E38" s="1">
-        <v>9.8598700000000005E-8</v>
+      <c r="E39" s="1"/>
+      <c r="J39">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/example_test.xlsx
+++ b/example_test.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="20900" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="New work" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="10">
   <si>
     <t>stg</t>
   </si>
@@ -41,6 +42,24 @@
   </si>
   <si>
     <t>TA:</t>
+  </si>
+  <si>
+    <t>feed_flow:</t>
+  </si>
+  <si>
+    <t>cut:</t>
+  </si>
+  <si>
+    <t>alpha:</t>
+  </si>
+  <si>
+    <t>beta:</t>
+  </si>
+  <si>
+    <t>machine:</t>
+  </si>
+  <si>
+    <t>ratio</t>
   </si>
 </sst>
 </file>
@@ -115,6 +134,951 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'New work'!$I$2:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>496.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>413.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>344.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1226028384"/>
+        <c:axId val="1226029744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1226028384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226029744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1226029744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226028384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2760,7 +3724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -3561,4 +4525,1760 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-4</v>
+      </c>
+      <c r="B2">
+        <v>3.41333E-3</v>
+      </c>
+      <c r="C2">
+        <v>4.1001700000000002E-3</v>
+      </c>
+      <c r="D2">
+        <v>2.8412200000000002E-3</v>
+      </c>
+      <c r="E2">
+        <v>6.3177299999999997E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.45443600000000001</v>
+      </c>
+      <c r="G2">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H2">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I2">
+        <v>166</v>
+      </c>
+      <c r="M2">
+        <v>-4</v>
+      </c>
+      <c r="N2">
+        <v>3.4749199999999998E-3</v>
+      </c>
+      <c r="O2">
+        <v>4.1554900000000004E-3</v>
+      </c>
+      <c r="P2">
+        <v>2.9054800000000002E-3</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2.7426499999999999E-5</v>
+      </c>
+      <c r="R2">
+        <v>0.45554600000000001</v>
+      </c>
+      <c r="S2">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U2">
+        <v>7</v>
+      </c>
+      <c r="V2">
+        <f>I2/U2</f>
+        <v>23.714285714285715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-3</v>
+      </c>
+      <c r="B3">
+        <v>4.1001700000000002E-3</v>
+      </c>
+      <c r="C3">
+        <v>4.9245199999999999E-3</v>
+      </c>
+      <c r="D3">
+        <v>3.41333E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.1581499999999999E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.45449899999999999</v>
+      </c>
+      <c r="G3">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I3">
+        <v>304</v>
+      </c>
+      <c r="M3">
+        <v>-3</v>
+      </c>
+      <c r="N3">
+        <v>4.1554900000000004E-3</v>
+      </c>
+      <c r="O3">
+        <v>4.9686799999999996E-3</v>
+      </c>
+      <c r="P3">
+        <v>3.4749199999999998E-3</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5.0379900000000002E-5</v>
+      </c>
+      <c r="R3">
+        <v>0.45560699999999998</v>
+      </c>
+      <c r="S3">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T3">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U3">
+        <v>13</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V15" si="0">I3/U3</f>
+        <v>23.384615384615383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="B4">
+        <v>4.9245199999999999E-3</v>
+      </c>
+      <c r="C4">
+        <v>5.9136400000000004E-3</v>
+      </c>
+      <c r="D4">
+        <v>4.1001700000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.5970100000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.45457399999999998</v>
+      </c>
+      <c r="G4">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H4">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I4">
+        <v>419</v>
+      </c>
+      <c r="M4">
+        <v>-2</v>
+      </c>
+      <c r="N4">
+        <v>4.9686799999999996E-3</v>
+      </c>
+      <c r="O4">
+        <v>5.9400700000000004E-3</v>
+      </c>
+      <c r="P4">
+        <v>4.1554900000000004E-3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>6.9602099999999996E-5</v>
+      </c>
+      <c r="R4">
+        <v>0.45567999999999997</v>
+      </c>
+      <c r="S4">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T4">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U4">
+        <v>18</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>23.277777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>5.9136400000000004E-3</v>
+      </c>
+      <c r="C5">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="D5">
+        <v>4.9245199999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.9632600000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.45466499999999999</v>
+      </c>
+      <c r="G5">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I5">
+        <v>515</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5">
+        <v>5.9400700000000004E-3</v>
+      </c>
+      <c r="O5">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="P5">
+        <v>4.9686799999999996E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>8.5714600000000001E-5</v>
+      </c>
+      <c r="R5">
+        <v>0.455766</v>
+      </c>
+      <c r="S5">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T5">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U5">
+        <v>22</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>23.40909090909091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="C6">
+        <v>8.5223299999999998E-3</v>
+      </c>
+      <c r="D6">
+        <v>5.9136400000000004E-3</v>
+      </c>
+      <c r="E6">
+        <v>2.26933E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.45477400000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I6">
+        <v>595</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="O6">
+        <v>8.4845000000000007E-3</v>
+      </c>
+      <c r="P6">
+        <v>5.9400700000000004E-3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>9.9237899999999994E-5</v>
+      </c>
+      <c r="R6">
+        <v>0.45587</v>
+      </c>
+      <c r="S6">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T6">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U6">
+        <v>25</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>8.5223299999999998E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.0226600000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.8902999999999999E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.45490399999999998</v>
+      </c>
+      <c r="G7">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I7">
+        <v>496</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>8.4845000000000007E-3</v>
+      </c>
+      <c r="O7">
+        <v>1.01362E-2</v>
+      </c>
+      <c r="P7">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>7.9792100000000005E-5</v>
+      </c>
+      <c r="R7">
+        <v>0.45599400000000001</v>
+      </c>
+      <c r="S7">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T7">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U7">
+        <v>21</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>23.61904761904762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1.0226600000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.22676E-2</v>
+      </c>
+      <c r="D8">
+        <v>8.5223299999999998E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.5749799999999999E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.45506099999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I8">
+        <v>413</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>1.01362E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.2105599999999999E-2</v>
+      </c>
+      <c r="P8">
+        <v>8.4845000000000007E-3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>6.3532200000000001E-5</v>
+      </c>
+      <c r="R8">
+        <v>0.45614199999999999</v>
+      </c>
+      <c r="S8">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T8">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U8">
+        <v>16</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>25.8125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1.22676E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.47098E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.0226600000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.31266E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.45524799999999999</v>
+      </c>
+      <c r="G9">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I9">
+        <v>344</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>1.2105599999999999E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.4452E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.01362E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4.9932599999999997E-5</v>
+      </c>
+      <c r="R9">
+        <v>0.456318</v>
+      </c>
+      <c r="S9">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T9">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U9">
+        <v>13</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>26.46153846153846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1.47098E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.7629499999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.22676E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.09443E-3</v>
+      </c>
+      <c r="F10">
+        <v>0.45547199999999999</v>
+      </c>
+      <c r="G10">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I10">
+        <v>287</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1.4452E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.7245199999999999E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.2105599999999999E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3.8553799999999997E-5</v>
+      </c>
+      <c r="R10">
+        <v>0.45652900000000002</v>
+      </c>
+      <c r="S10">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T10">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>1.7629499999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.1116300000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.47098E-2</v>
+      </c>
+      <c r="E11">
+        <v>9.1288100000000004E-4</v>
+      </c>
+      <c r="F11">
+        <v>0.45573999999999998</v>
+      </c>
+      <c r="G11">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I11">
+        <v>240</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>1.7245199999999999E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.0567100000000001E-2</v>
+      </c>
+      <c r="P11">
+        <v>1.4452E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2.9028100000000001E-5</v>
+      </c>
+      <c r="R11">
+        <v>0.45677899999999999</v>
+      </c>
+      <c r="S11">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T11">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U11">
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2.1116300000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.5274999999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.7629499999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>7.6184600000000005E-4</v>
+      </c>
+      <c r="F12">
+        <v>0.45606000000000002</v>
+      </c>
+      <c r="G12">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I12">
+        <v>200</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>2.0567100000000001E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.4512800000000001E-2</v>
+      </c>
+      <c r="P12">
+        <v>1.7245199999999999E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2.1047400000000001E-5</v>
+      </c>
+      <c r="R12">
+        <v>0.45707599999999998</v>
+      </c>
+      <c r="S12">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T12">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U12">
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2.5274999999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.0227500000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.1116300000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>6.3619700000000002E-4</v>
+      </c>
+      <c r="F13">
+        <v>0.45644200000000001</v>
+      </c>
+      <c r="G13">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I13">
+        <v>167</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>2.4512800000000001E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.9193E-2</v>
+      </c>
+      <c r="P13">
+        <v>2.0567100000000001E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.43539E-5</v>
+      </c>
+      <c r="R13">
+        <v>0.45742899999999997</v>
+      </c>
+      <c r="S13">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T13">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>41.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3.0227500000000001E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.6114300000000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.5274999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.3166400000000005E-4</v>
+      </c>
+      <c r="F14">
+        <v>0.45689600000000002</v>
+      </c>
+      <c r="G14">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I14">
+        <v>140</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>2.9193E-2</v>
+      </c>
+      <c r="O14">
+        <v>3.4735000000000002E-2</v>
+      </c>
+      <c r="P14">
+        <v>2.4512800000000001E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>8.7312000000000004E-6</v>
+      </c>
+      <c r="R14">
+        <v>0.45784799999999998</v>
+      </c>
+      <c r="S14">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T14">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>3.6114300000000002E-2</v>
+      </c>
+      <c r="C15">
+        <v>4.3096799999999998E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.0227500000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>4.4469900000000001E-4</v>
+      </c>
+      <c r="F15">
+        <v>0.45743600000000001</v>
+      </c>
+      <c r="G15">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I15">
+        <v>117</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <v>3.4735000000000002E-2</v>
+      </c>
+      <c r="O15">
+        <v>4.12842E-2</v>
+      </c>
+      <c r="P15">
+        <v>2.9193E-2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3.9975600000000002E-6</v>
+      </c>
+      <c r="R15">
+        <v>0.458345</v>
+      </c>
+      <c r="S15">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="T15">
+        <v>1.1966699999999999</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>4.3096799999999998E-2</v>
+      </c>
+      <c r="C16">
+        <v>5.1357199999999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.6114300000000002E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.7234799999999999E-4</v>
+      </c>
+      <c r="F16">
+        <v>0.45807700000000001</v>
+      </c>
+      <c r="G16">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>5.1357199999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>6.1099899999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.3096799999999998E-2</v>
+      </c>
+      <c r="E17">
+        <v>3.1215300000000002E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.45883499999999999</v>
+      </c>
+      <c r="G17">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>6.1099899999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>7.2549500000000003E-2</v>
+      </c>
+      <c r="D18">
+        <v>5.1357199999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>2.6206999999999999E-4</v>
+      </c>
+      <c r="F18">
+        <v>0.459729</v>
+      </c>
+      <c r="G18">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>7.2549500000000003E-2</v>
+      </c>
+      <c r="C19">
+        <v>8.5948200000000002E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.1099899999999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>2.20399E-4</v>
+      </c>
+      <c r="F19">
+        <v>0.46077899999999999</v>
+      </c>
+      <c r="G19">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>8.5948200000000002E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.10155</v>
+      </c>
+      <c r="D20">
+        <v>7.2549500000000003E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.85723E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.462009</v>
+      </c>
+      <c r="G20">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0.10155</v>
+      </c>
+      <c r="C21">
+        <v>0.119614</v>
+      </c>
+      <c r="D21">
+        <v>8.5948200000000002E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.56866E-4</v>
+      </c>
+      <c r="F21">
+        <v>0.46344000000000002</v>
+      </c>
+      <c r="G21">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>0.119614</v>
+      </c>
+      <c r="C22">
+        <v>0.14038999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.10155</v>
+      </c>
+      <c r="E22">
+        <v>1.32848E-4</v>
+      </c>
+      <c r="F22">
+        <v>0.46509800000000001</v>
+      </c>
+      <c r="G22">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>0.14038999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.1641</v>
+      </c>
+      <c r="D23">
+        <v>0.119614</v>
+      </c>
+      <c r="E23">
+        <v>1.12852E-4</v>
+      </c>
+      <c r="F23">
+        <v>0.46700399999999997</v>
+      </c>
+      <c r="G23">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H23">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>0.1641</v>
+      </c>
+      <c r="C24">
+        <v>0.19092600000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.14038999999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9.6199600000000006E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.46917900000000001</v>
+      </c>
+      <c r="G24">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H24">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>0.19092600000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.22097800000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.1641</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8.2325300000000003E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.47164099999999998</v>
+      </c>
+      <c r="G25">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>0.22097800000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.254274</v>
+      </c>
+      <c r="D26">
+        <v>0.19092600000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7.0757800000000002E-5</v>
+      </c>
+      <c r="F26">
+        <v>0.47439799999999999</v>
+      </c>
+      <c r="G26">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H26">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>0.254274</v>
+      </c>
+      <c r="C27">
+        <v>0.29071399999999997</v>
+      </c>
+      <c r="D27">
+        <v>0.22097800000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6.1104200000000004E-5</v>
+      </c>
+      <c r="F27">
+        <v>0.47745300000000002</v>
+      </c>
+      <c r="G27">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H27">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>0.29071399999999997</v>
+      </c>
+      <c r="C28">
+        <v>0.330065</v>
+      </c>
+      <c r="D28">
+        <v>0.254274</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5.30368E-5</v>
+      </c>
+      <c r="F28">
+        <v>0.48079699999999997</v>
+      </c>
+      <c r="G28">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H28">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>0.330065</v>
+      </c>
+      <c r="C29">
+        <v>0.37195</v>
+      </c>
+      <c r="D29">
+        <v>0.29071399999999997</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.62814E-5</v>
+      </c>
+      <c r="F29">
+        <v>0.48440800000000001</v>
+      </c>
+      <c r="G29">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H29">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>0.37195</v>
+      </c>
+      <c r="C30">
+        <v>0.41585</v>
+      </c>
+      <c r="D30">
+        <v>0.330065</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.0608800000000003E-5</v>
+      </c>
+      <c r="F30">
+        <v>0.48825099999999999</v>
+      </c>
+      <c r="G30">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H30">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>0.41585</v>
+      </c>
+      <c r="C31">
+        <v>0.46112700000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.37195</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.5826199999999999E-5</v>
+      </c>
+      <c r="F31">
+        <v>0.49227900000000002</v>
+      </c>
+      <c r="G31">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H31">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0.46112700000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.50705500000000003</v>
+      </c>
+      <c r="D32">
+        <v>0.41585</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.1771199999999998E-5</v>
+      </c>
+      <c r="F32">
+        <v>0.49643300000000001</v>
+      </c>
+      <c r="G32">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H32">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>0.50705500000000003</v>
+      </c>
+      <c r="C33">
+        <v>0.55286400000000002</v>
+      </c>
+      <c r="D33">
+        <v>0.46112700000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.83061E-5</v>
+      </c>
+      <c r="F33">
+        <v>0.50064699999999995</v>
+      </c>
+      <c r="G33">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H33">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>0.55286400000000002</v>
+      </c>
+      <c r="C34">
+        <v>0.59779300000000002</v>
+      </c>
+      <c r="D34">
+        <v>0.50705500000000003</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.53131E-5</v>
+      </c>
+      <c r="F34">
+        <v>0.50485100000000005</v>
+      </c>
+      <c r="G34">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H34">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>0.59779300000000002</v>
+      </c>
+      <c r="C35">
+        <v>0.64113799999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.55286400000000002</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.26908E-5</v>
+      </c>
+      <c r="F35">
+        <v>0.50897300000000001</v>
+      </c>
+      <c r="G35">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H35">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>0.64113799999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.68229399999999996</v>
+      </c>
+      <c r="D36">
+        <v>0.59779300000000002</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.035E-5</v>
+      </c>
+      <c r="F36">
+        <v>0.51295000000000002</v>
+      </c>
+      <c r="G36">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H36">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>0.68229399999999996</v>
+      </c>
+      <c r="C37">
+        <v>0.72078600000000004</v>
+      </c>
+      <c r="D37">
+        <v>0.64113799999999999</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.8211099999999999E-5</v>
+      </c>
+      <c r="F37">
+        <v>0.51672600000000002</v>
+      </c>
+      <c r="G37">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H37">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>0.72078600000000004</v>
+      </c>
+      <c r="C38">
+        <v>0.75627999999999995</v>
+      </c>
+      <c r="D38">
+        <v>0.68229399999999996</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.6201600000000001E-5</v>
+      </c>
+      <c r="F38">
+        <v>0.520258</v>
+      </c>
+      <c r="G38">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H38">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>0.75627999999999995</v>
+      </c>
+      <c r="C39">
+        <v>0.78858499999999998</v>
+      </c>
+      <c r="D39">
+        <v>0.72078600000000004</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.42533E-5</v>
+      </c>
+      <c r="F39">
+        <v>0.52351499999999995</v>
+      </c>
+      <c r="G39">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H39">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>0.78858499999999998</v>
+      </c>
+      <c r="C40">
+        <v>0.81764099999999995</v>
+      </c>
+      <c r="D40">
+        <v>0.75627999999999995</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.2299900000000001E-5</v>
+      </c>
+      <c r="F40">
+        <v>0.52647900000000003</v>
+      </c>
+      <c r="G40">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H40">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>0.81764099999999995</v>
+      </c>
+      <c r="C41">
+        <v>0.84349600000000002</v>
+      </c>
+      <c r="D41">
+        <v>0.78858499999999998</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.0275099999999999E-5</v>
+      </c>
+      <c r="F41">
+        <v>0.52914499999999998</v>
+      </c>
+      <c r="G41">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H41">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>0.84349600000000002</v>
+      </c>
+      <c r="C42">
+        <v>0.86628499999999997</v>
+      </c>
+      <c r="D42">
+        <v>0.81764099999999995</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8.1101299999999992E-6</v>
+      </c>
+      <c r="F42">
+        <v>0.53151800000000005</v>
+      </c>
+      <c r="G42">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H42">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>0.86628499999999997</v>
+      </c>
+      <c r="C43">
+        <v>0.88620299999999996</v>
+      </c>
+      <c r="D43">
+        <v>0.84349600000000002</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5.7314800000000004E-6</v>
+      </c>
+      <c r="F43">
+        <v>0.533609</v>
+      </c>
+      <c r="G43">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H43">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>0.88620299999999996</v>
+      </c>
+      <c r="C44">
+        <v>0.90348499999999998</v>
+      </c>
+      <c r="D44">
+        <v>0.86628499999999997</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.0583699999999998E-6</v>
+      </c>
+      <c r="F44">
+        <v>0.53543600000000002</v>
+      </c>
+      <c r="G44">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="H44">
+        <v>1.2020500000000001</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>